--- a/global_data/day_data/001301.xlsx
+++ b/global_data/day_data/001301.xlsx
@@ -47,8 +47,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -102,12 +103,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -402,7 +404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I564"/>
+  <dimension ref="A1:I566"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -16764,6 +16766,64 @@
         <v>0.03338211457330489</v>
       </c>
     </row>
+    <row r="565" spans="1:9">
+      <c r="A565" s="3">
+        <v>45776</v>
+      </c>
+      <c r="B565">
+        <v>50.55</v>
+      </c>
+      <c r="C565">
+        <v>50.96</v>
+      </c>
+      <c r="D565">
+        <v>50.3</v>
+      </c>
+      <c r="E565">
+        <v>50.34</v>
+      </c>
+      <c r="F565">
+        <v>3326429</v>
+      </c>
+      <c r="G565">
+        <v>167926360</v>
+      </c>
+      <c r="H565">
+        <v>161052350</v>
+      </c>
+      <c r="I565">
+        <v>0.02065433382375358</v>
+      </c>
+    </row>
+    <row r="566" spans="1:9">
+      <c r="A566" s="3">
+        <v>45777</v>
+      </c>
+      <c r="B566">
+        <v>50.54</v>
+      </c>
+      <c r="C566">
+        <v>50.67</v>
+      </c>
+      <c r="D566">
+        <v>49.33</v>
+      </c>
+      <c r="E566">
+        <v>49.37</v>
+      </c>
+      <c r="F566">
+        <v>4161012</v>
+      </c>
+      <c r="G566">
+        <v>207959449</v>
+      </c>
+      <c r="H566">
+        <v>161052350</v>
+      </c>
+      <c r="I566">
+        <v>0.02583639419108135</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
